--- a/biology/Botanique/Saxifrage_de_Séguier/Saxifrage_de_Séguier.xlsx
+++ b/biology/Botanique/Saxifrage_de_Séguier/Saxifrage_de_Séguier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saxifrage_de_S%C3%A9guier</t>
+          <t>Saxifrage_de_Séguier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saxifraga seguieri
 La Saxifrage de Séguier (Saxifraga seguieri) est une espèce de plantes vivaces de la famille des Saxifragacées. Elle doit son nom au botaniste français Jean-François Séguier (1703-1784) qui la décrit : « Saxifraga alpina minima, foliis ligulatis in orbem circumactis, flore ochroleuco ».
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saxifrage_de_S%C3%A9guier</t>
+          <t>Saxifrage_de_Séguier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante vivace atteint une hauteur de 2 à 6 centimètres ; elle pousse en gazon ou en coussinets plats. Les feuilles en rosette sont longues de 5 à 30 millimètres, larges de 1 à 4 millimètres, lancéolées, vert foncé. La floraison a lieu de juillet à août[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante vivace atteint une hauteur de 2 à 6 centimètres ; elle pousse en gazon ou en coussinets plats. Les feuilles en rosette sont longues de 5 à 30 millimètres, larges de 1 à 4 millimètres, lancéolées, vert foncé. La floraison a lieu de juillet à août. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Saxifrage_de_S%C3%A9guier</t>
+          <t>Saxifrage_de_Séguier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La saxifrage de Seguier se rencontre dans les Alpes, sur des éboulis siliceux et calcaires et dans des combes à neige, à des altitudes de 1 600 à 3 000 mètres. Il pousse entre 2 200 et 3 250 mètres en Valais, entre 2 000 et 3 150 mètres au Tessin, entre 2 060 et 3 300 mètres dans les Grisons, entre 2 100 et 3 200 mètres d'altitude dans l'ouest du Tyrol ; il atteint 3 300 mètres d'altitude au Piz Linard et 3 700 mètres au mont Vélan[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La saxifrage de Seguier se rencontre dans les Alpes, sur des éboulis siliceux et calcaires et dans des combes à neige, à des altitudes de 1 600 à 3 000 mètres. Il pousse entre 2 200 et 3 250 mètres en Valais, entre 2 000 et 3 150 mètres au Tessin, entre 2 060 et 3 300 mètres dans les Grisons, entre 2 100 et 3 200 mètres d'altitude dans l'ouest du Tyrol ; il atteint 3 300 mètres d'altitude au Piz Linard et 3 700 mètres au mont Vélan.
 </t>
         </is>
       </c>
